--- a/FITXA ECONÒMICA.xlsx
+++ b/FITXA ECONÒMICA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvaes.sharepoint.com/sites/SDG.FORMACI_TEAMS-GestiEconmica/Documentos compartidos/Gestió Econòmica/NUBE GESTIÓN ECONÓMICA/CEFIRES/PROTOCOLOS CEFIRES gestión económica/Modelo Ficha Económica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\APLICACIONS_EXTRA_DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="438" documentId="8_{3A19B13C-EA8D-4C15-B7A4-D0881F0CA3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{947EDFFC-BF92-4304-91BE-1D4650A807AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B390F3-D0E1-4BEB-ACB0-D0783DFAAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA ECONÓMICA" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -188,9 +191,6 @@
     <t>UNIDADES/UNITATS</t>
   </si>
   <si>
-    <t>Solo en caso de tutorización indicar Nº ALUMNANOS/AS TUTORIZADOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TARIFICACIÓN APLICADA (€) </t>
   </si>
   <si>
@@ -370,6 +370,9 @@
   <si>
     <t>Empresa/autónomo</t>
   </si>
+  <si>
+    <t>Solo en caso de tutorización indicar Nº ALUMNOS/AS TUTORIZADOS</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +382,7 @@
     <numFmt numFmtId="164" formatCode="#,##0&quot; €&quot;;[Red]\-#,##0&quot; €&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-803];[Red]\-#,##0.00\ [$€-803]"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1281,10 +1284,10 @@
   <dimension ref="C1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="76.5703125" customWidth="1"/>
@@ -1298,7 +1301,7 @@
     <col min="11" max="11" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" ht="15.75">
+    <row r="1" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,13 +1309,13 @@
       <c r="J1" s="39"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="3:11">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="3:11" ht="23.25">
+    <row r="3" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1320,22 +1323,22 @@
       <c r="J3" s="33"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="3:11" ht="23.25">
+    <row r="4" spans="3:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="3:11">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="3:11" ht="22.15" customHeight="1" thickBot="1">
+    <row r="7" spans="3:11" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="H7" s="8"/>
@@ -1343,7 +1346,7 @@
       <c r="J7" s="44"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="3:11" ht="23.25">
+    <row r="8" spans="3:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1353,7 +1356,7 @@
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="3:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="9" spans="3:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1364,7 +1367,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="3:11" ht="27" customHeight="1" thickBot="1">
+    <row r="10" spans="3:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="48" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1382,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="3:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="11" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="47" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1397,7 @@
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
     </row>
-    <row r="12" spans="3:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="12" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1410,7 @@
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
     </row>
-    <row r="13" spans="3:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="13" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
     </row>
-    <row r="14" spans="3:11" ht="26.25" customHeight="1" thickBot="1">
+    <row r="14" spans="3:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1436,7 @@
       <c r="J14" s="57"/>
       <c r="K14" s="57"/>
     </row>
-    <row r="15" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="15" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1449,7 @@
       <c r="J15" s="57"/>
       <c r="K15" s="57"/>
     </row>
-    <row r="16" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="16" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1462,7 @@
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
     </row>
-    <row r="17" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="17" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="52" t="s">
         <v>13</v>
       </c>
@@ -1472,7 +1475,7 @@
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
     </row>
-    <row r="18" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="18" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>14</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="J18" s="63"/>
       <c r="K18" s="64"/>
     </row>
-    <row r="19" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="19" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1501,7 @@
       <c r="J19" s="58"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="3:11" ht="25.5" customHeight="1" thickBot="1">
+    <row r="20" spans="3:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
@@ -1511,14 +1514,14 @@
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
     </row>
-    <row r="21" spans="3:11" ht="15.75" thickBot="1">
+    <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="3:11" ht="48.75" customHeight="1">
+    <row r="22" spans="3:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
@@ -1538,16 +1541,16 @@
         <v>22</v>
       </c>
       <c r="I22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="K22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="30" customHeight="1">
+    </row>
+    <row r="23" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="30" customHeight="1">
+    <row r="24" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -1575,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="30" customHeight="1">
+    <row r="25" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -1589,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="30" customHeight="1">
+    <row r="26" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="21"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -1603,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30" customHeight="1">
+    <row r="27" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="21"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -1617,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="30" customHeight="1">
+    <row r="28" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="21"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="30" customHeight="1">
+    <row r="29" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="21"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="30" customHeight="1">
+    <row r="30" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="21"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -1659,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="30" customHeight="1" thickBot="1">
+    <row r="31" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
@@ -1673,41 +1676,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="34" spans="3:11" ht="28.7" customHeight="1" thickBot="1">
+    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:11" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="30">
         <f>SUM(K23:K31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="37" spans="3:11" ht="31.5" customHeight="1">
+    <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
       <c r="K37" s="67"/>
     </row>
-    <row r="38" spans="3:11" ht="15.75">
+    <row r="38" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="3:11" ht="15.75">
+    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -1717,7 +1720,7 @@
       <c r="J39" s="31"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="3:11" ht="15.75">
+    <row r="40" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="31"/>
@@ -1727,7 +1730,7 @@
       <c r="J40" s="31"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="3:11" ht="15.75">
+    <row r="41" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
@@ -1737,7 +1740,7 @@
       <c r="J41" s="31"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
@@ -1747,7 +1750,7 @@
       <c r="J42" s="33"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
@@ -1757,26 +1760,26 @@
       <c r="J43" s="33"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H44" s="3"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="3:11" ht="32.25" thickBot="1">
+    <row r="45" spans="3:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="43"/>
       <c r="I45" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="47" spans="3:11" ht="18.75">
+    <row r="46" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C47" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="38"/>
@@ -1787,9 +1790,9 @@
       <c r="J47" s="39"/>
       <c r="K47" s="32"/>
     </row>
-    <row r="48" spans="3:11" ht="15.75" thickBot="1">
+    <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
@@ -1800,7 +1803,7 @@
       <c r="J48" s="60"/>
       <c r="K48" s="60"/>
     </row>
-    <row r="49" spans="3:11" ht="15.75" thickBot="1">
+    <row r="49" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
@@ -1811,7 +1814,7 @@
       <c r="J49" s="60"/>
       <c r="K49" s="60"/>
     </row>
-    <row r="50" spans="3:11" ht="15.75" thickBot="1">
+    <row r="50" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="60"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
@@ -1888,210 +1891,210 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="49"/>
       <c r="J3" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
+      <c r="E13" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
+      <c r="E20" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="49"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>64</v>
       </c>
       <c r="E21">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>0.106</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>65.97</v>
@@ -2104,6 +2107,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cccfa497-ac3e-4aea-9a3a-5d2483928464" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007BD18D3F7288E745996656793FA4913E" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fdf81845189e92ed4dc5f0dff90d793f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6" xmlns:ns3="cccfa497-ac3e-4aea-9a3a-5d2483928464" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="716ae4fae99d198d83ad0a7a3148e084" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
@@ -2338,34 +2361,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cccfa497-ac3e-4aea-9a3a-5d2483928464" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40365F2A-E651-4AE2-9371-EC4507CD08EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6967A-E048-427C-9E79-5EBF0B91CE14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
+    <ds:schemaRef ds:uri="cccfa497-ac3e-4aea-9a3a-5d2483928464"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F72FD4-6C93-474B-9211-4678103B7925}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54F72FD4-6C93-474B-9211-4678103B7925}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B6967A-E048-427C-9E79-5EBF0B91CE14}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40365F2A-E651-4AE2-9371-EC4507CD08EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5f761dc-0ad6-4c4e-b39e-b164820ce0c6"/>
+    <ds:schemaRef ds:uri="cccfa497-ac3e-4aea-9a3a-5d2483928464"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>